--- a/заказы/статистика филиалы/2024/07,24/18,07,24 ПОКОМ КИ филиалы/дв 18,07,24 лгрсч пок ки от филиала.xlsx
+++ b/заказы/статистика филиалы/2024/07,24/18,07,24 ПОКОМ КИ филиалы/дв 18,07,24 лгрсч пок ки от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\18,07,24 ПОКОМ КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\07,24\18,07,24 ПОКОМ КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3616D582-ECD8-4336-8342-D16FF841B3CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0908C29-4C3D-4ABB-837C-E630D492993C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="152">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>нет в бланке заказа</t>
+  </si>
+  <si>
+    <t>ротация на  449  Колбаса Дугушка Стародворская ВЕС ТС Дугушка ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -961,7 +964,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AD11" sqref="AD11"/>
+      <selection pane="bottomRight" activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3101,7 +3104,9 @@
       <c r="AC21" s="1">
         <v>367.12299999999999</v>
       </c>
-      <c r="AD21" s="1"/>
+      <c r="AD21" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="AE21" s="1">
         <f t="shared" si="10"/>
         <v>1311</v>
